--- a/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
+++ b/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Constant\Source\Repos\sorcerer\xp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="0" windowWidth="27780" windowHeight="12885"/>
+    <workbookView xWindow="8955" yWindow="0" windowWidth="27780" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -761,9 +761,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>idJoueur</t>
-  </si>
-  <si>
     <t>prenomNom</t>
   </si>
   <si>
@@ -858,6 +855,9 @@
   </si>
   <si>
     <t>loterie10</t>
+  </si>
+  <si>
+    <t>IDjoueur</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,13 +1228,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
         <v>243</v>
@@ -1243,97 +1243,97 @@
         <v>242</v>
       </c>
       <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>1</v>

--- a/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
+++ b/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="0" windowWidth="27780" windowHeight="12885"/>
+    <workbookView xWindow="9900" yWindow="0" windowWidth="27780" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
+    <sheet name="log_questionnaire_XP_WEEK2_REWR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
-    <t>Citez trois de vos jeux favoris en précisant leur support (jeu vidéo, jeu de plateau/de société, etc.) :</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -36,15 +33,9 @@
     <t>PITON Alex</t>
   </si>
   <si>
-    <t>WoW PC , CsGo PC , RiskOfRain PC</t>
-  </si>
-  <si>
     <t>Stéphane Jeanton</t>
   </si>
   <si>
-    <t xml:space="preserve">age of empire/vidéo, risk/société, belote/société </t>
-  </si>
-  <si>
     <t>Marine TEISSEDRE</t>
   </si>
   <si>
@@ -54,57 +45,30 @@
     <t>Axel VANDENDRIESSCHE</t>
   </si>
   <si>
-    <t>Kerbal Space Program , Minecraft , payday 2 (tous sur pc)</t>
-  </si>
-  <si>
     <t>quentinTEISSEDRE</t>
   </si>
   <si>
-    <t>the Division(ps4), blitz brigade(tablette), risk(jeux de société)</t>
-  </si>
-  <si>
     <t>Thomas Leydier</t>
   </si>
   <si>
-    <t>Clash royale, jeux sur téléphone</t>
-  </si>
-  <si>
     <t>Rémi Mouton</t>
   </si>
   <si>
-    <t>call of duty (jeu vidéo) , plague inc (jeu video) , assasin's creed (jeux video)</t>
-  </si>
-  <si>
     <t>Jérémie diemunsch</t>
   </si>
   <si>
-    <t>concept (jeux de société), mario (jeu de plateforme)</t>
-  </si>
-  <si>
     <t>Camille Bonodot</t>
   </si>
   <si>
-    <t>solitaire et Doodle jump (iPhone), Professeur Layton (NDS)</t>
-  </si>
-  <si>
     <t>Tiana Nelson</t>
   </si>
   <si>
-    <t>league of legends, s4league, star war jedi knight academi</t>
-  </si>
-  <si>
     <t>Sarah Debien</t>
   </si>
   <si>
-    <t>Mario Kart (wii), Loup garou (cartes), Scrabble (jeu de société)</t>
-  </si>
-  <si>
     <t>Sabrina Debien</t>
   </si>
   <si>
-    <t>Le loup garou, Scrabble, Monopoly</t>
-  </si>
-  <si>
     <t>Lina Debien</t>
   </si>
   <si>
@@ -114,15 +78,9 @@
     <t>Sarah INDRIGO</t>
   </si>
   <si>
-    <t>donkey kong wii, wii sport sur la wii, dixit (jeu de société)</t>
-  </si>
-  <si>
     <t>Patrick PERRODIN</t>
   </si>
   <si>
-    <t>FIFA 17 (PS4), Rocket League (PS4), Diablo (PC et PS4)</t>
-  </si>
-  <si>
     <t>oyxe65le2</t>
   </si>
   <si>
@@ -174,9 +132,6 @@
     <t>Bryan Bureau</t>
   </si>
   <si>
-    <t>Counter Strike : Global Offensive (Jeu vidéo Steam), Portal 2 (Jeu vidéo Steam) et Batman Arkham Knight (Jeu vidéo xBox One)</t>
-  </si>
-  <si>
     <t>Corentin Ruin</t>
   </si>
   <si>
@@ -186,19 +141,10 @@
     <t>binquetin maeva</t>
   </si>
   <si>
-    <t>bo2 , gta , batman sur xbox 360</t>
-  </si>
-  <si>
     <t>lubin gauducheau</t>
   </si>
   <si>
-    <t>hearstone sur pc , heros of the storm sur pc et clash royal sur android.</t>
-  </si>
-  <si>
     <t>Balraj David</t>
-  </si>
-  <si>
-    <t>World of Warcraft (jeu vidéo), Starcraft II (jeu vidéo), Total Wars Napoleon (jeu vidéo)</t>
   </si>
   <si>
     <t>Morgan Fringant</t>
@@ -218,9 +164,6 @@
     <t>bryce weber</t>
   </si>
   <si>
-    <t xml:space="preserve">titanfall(xbox), rust(pc), call of duty(xbox) </t>
-  </si>
-  <si>
     <t>Satya David</t>
   </si>
   <si>
@@ -230,11 +173,6 @@
     <t>BELIERES Amaury</t>
   </si>
   <si>
-    <t>League of Legend (jeu vidéo)
-Pokemon (émulateur, a savoir un jeu pour console portable installé sur telephone)
-Sylvette Rochette (jeu crée avec un ami sur calculatrice avec un ami)</t>
-  </si>
-  <si>
     <t>jkrr4g6pb</t>
   </si>
   <si>
@@ -274,9 +212,6 @@
     <t>Martin Couvelard</t>
   </si>
   <si>
-    <t>Final Fantasy X (jeu vidéo), Advanced Donjons et Dragons (jeu de rôle), Dungeon Saga (jeu de plateau)</t>
-  </si>
-  <si>
     <t>Couvelard Jean</t>
   </si>
   <si>
@@ -298,15 +233,9 @@
     <t>Jean-Michel DOAN?</t>
   </si>
   <si>
-    <t>Jeu de Go, Tigres et Euphrates (jeu de plateau), Magic the Gathering (jeu de cartes à collectionner)</t>
-  </si>
-  <si>
     <t>Julie Boisson</t>
   </si>
   <si>
-    <t>Les aventuriers du rail (plateau), Caverna (plateau), Kingdom Rush (Ipad)</t>
-  </si>
-  <si>
     <t>Alexandre Doan</t>
   </si>
   <si>
@@ -334,13 +263,7 @@
     <t>olivier Sicot</t>
   </si>
   <si>
-    <t>civilization (jeu video),  clash royale (smarphone)</t>
-  </si>
-  <si>
     <t>Nicolas Mondolfo</t>
-  </si>
-  <si>
-    <t>League of Legends, Vainglory, Trackmania</t>
   </si>
   <si>
     <t>florian delon</t>
@@ -372,9 +295,6 @@
     <t>Nassim bouregaya</t>
   </si>
   <si>
-    <t>Call of duty sur ps4, clash royal sur smartphone, pokemon go sur smartphone</t>
-  </si>
-  <si>
     <t>Gael Le Torriellec</t>
   </si>
   <si>
@@ -435,9 +355,6 @@
     <t>Patricia Nivet</t>
   </si>
   <si>
-    <t>échecs/jeu de plateau, tarot/jeu société, scrabble/jeu de plateai</t>
-  </si>
-  <si>
     <t>Nivet Benjamin</t>
   </si>
   <si>
@@ -453,9 +370,6 @@
     <t>Christina Bantsimba</t>
   </si>
   <si>
-    <t>Mario Kart (DS), Just Dance (Wii), Wii sport (Wii)</t>
-  </si>
-  <si>
     <t>khayr ad-din</t>
   </si>
   <si>
@@ -471,21 +385,12 @@
     <t>Derungs Alexian</t>
   </si>
   <si>
-    <t>Call of Duty Black ops,Call of Duty Black ops 2,The Last of US</t>
-  </si>
-  <si>
     <t>lancelin poulet</t>
   </si>
   <si>
-    <t>batellfield 1 jeux vidéo ,grand theft auto 5 jeux vidéo ,1000 bornes jeux de societé.</t>
-  </si>
-  <si>
     <t>Frank PARI</t>
   </si>
   <si>
-    <t>Xenogears (PS1), Super Mario Bros (NES), FIFA 17 (PC)</t>
-  </si>
-  <si>
     <t>gael carpentier</t>
   </si>
   <si>
@@ -507,9 +412,6 @@
     <t>Axel Vittet</t>
   </si>
   <si>
-    <t>Minecraft (PC), Garry's mod (PC), Monopoly (Jeu plateau)</t>
-  </si>
-  <si>
     <t>walid lahouari</t>
   </si>
   <si>
@@ -640,9 +542,6 @@
   </si>
   <si>
     <t>FATHMA BAADACHE</t>
-  </si>
-  <si>
-    <t>Monopoly, Duel Quiz, jeu des 7 familles</t>
   </si>
   <si>
     <t>Yanis Petit</t>
@@ -656,36 +555,21 @@
     <t>Isabelle Chabanon-Pouget</t>
   </si>
   <si>
-    <t>Plants vs Zombies (smartphone), Ticket to ride (smartphone), Timeline (jeu de cartes)</t>
-  </si>
-  <si>
     <t>Léa NEVES</t>
   </si>
   <si>
-    <t>zombie tsunami, subway surfer, piano tiles 2</t>
-  </si>
-  <si>
     <t>Adriane Kaïchouh</t>
   </si>
   <si>
-    <t>Dominion (jeu de société), coinche (jeu de société), Five Tribes (jeu de société)</t>
-  </si>
-  <si>
     <t>DEJONGHE Véro</t>
   </si>
   <si>
     <t>Nicolas Dejonghe</t>
   </si>
   <si>
-    <t>SuperBuzzer (sur iOS), 2048 (sur iOS), FifaStreet (jeu video)</t>
-  </si>
-  <si>
     <t>Héloïse Kaichouh</t>
   </si>
   <si>
-    <t>Belote (jeu de plateau), dames chinoises (jeu de plateau), rami (jeu de société)</t>
-  </si>
-  <si>
     <t>Carrabin Nathan</t>
   </si>
   <si>
@@ -707,9 +591,6 @@
     <t>Noam CARRABIN</t>
   </si>
   <si>
-    <t>Fifa 17 sur PlayStation 4 , Rocket league sur PlayStation 4 et GTA 5 sur PlayStation 4</t>
-  </si>
-  <si>
     <t>Christiane Sanchez</t>
   </si>
   <si>
@@ -858,6 +739,125 @@
   </si>
   <si>
     <t>IDjoueur</t>
+  </si>
+  <si>
+    <t>Citez trois de vos jeux favoris en précisant leur support (jeu vidéo_ jeu de plateau/de société_ etc.) :</t>
+  </si>
+  <si>
+    <t>WoW PC _ CsGo PC _ RiskOfRain PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age of empire/vidéo_ risk/société_ belote/société </t>
+  </si>
+  <si>
+    <t>Kerbal Space Program _ Minecraft _ payday 2 (tous sur pc)</t>
+  </si>
+  <si>
+    <t>the Division(ps4)_ blitz brigade(tablette)_ risk(jeux de société)</t>
+  </si>
+  <si>
+    <t>Clash royale_ jeux sur téléphone</t>
+  </si>
+  <si>
+    <t>call of duty (jeu vidéo) _ plague inc (jeu video) _ assasin's creed (jeux video)</t>
+  </si>
+  <si>
+    <t>concept (jeux de société)_ mario (jeu de plateforme)</t>
+  </si>
+  <si>
+    <t>solitaire et Doodle jump (iPhone)_ Professeur Layton (NDS)</t>
+  </si>
+  <si>
+    <t>league of legends_ s4league_ star war jedi knight academi</t>
+  </si>
+  <si>
+    <t>Mario Kart (wii)_ Loup garou (cartes)_ Scrabble (jeu de société)</t>
+  </si>
+  <si>
+    <t>Le loup garou_ Scrabble_ Monopoly</t>
+  </si>
+  <si>
+    <t>donkey kong wii_ wii sport sur la wii_ dixit (jeu de société)</t>
+  </si>
+  <si>
+    <t>FIFA 17 (PS4)_ Rocket League (PS4)_ Diablo (PC et PS4)</t>
+  </si>
+  <si>
+    <t>Counter Strike : Global Offensive (Jeu vidéo Steam)_ Portal 2 (Jeu vidéo Steam) et Batman Arkham Knight (Jeu vidéo xBox One)</t>
+  </si>
+  <si>
+    <t>bo2 _ gta _ batman sur xbox 360</t>
+  </si>
+  <si>
+    <t>hearstone sur pc _ heros of the storm sur pc et clash royal sur android.</t>
+  </si>
+  <si>
+    <t>World of Warcraft (jeu vidéo)_ Starcraft II (jeu vidéo)_ Total Wars Napoleon (jeu vidéo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanfall(xbox)_ rust(pc)_ call of duty(xbox) </t>
+  </si>
+  <si>
+    <t>League of Legend (jeu vidéo)
+Pokemon (émulateur_ a savoir un jeu pour console portable installé sur telephone)
+Sylvette Rochette (jeu crée avec un ami sur calculatrice avec un ami)</t>
+  </si>
+  <si>
+    <t>Final Fantasy X (jeu vidéo)_ Advanced Donjons et Dragons (jeu de rôle)_ Dungeon Saga (jeu de plateau)</t>
+  </si>
+  <si>
+    <t>Jeu de Go_ Tigres et Euphrates (jeu de plateau)_ Magic the Gathering (jeu de cartes à collectionner)</t>
+  </si>
+  <si>
+    <t>Les aventuriers du rail (plateau)_ Caverna (plateau)_ Kingdom Rush (Ipad)</t>
+  </si>
+  <si>
+    <t>civilization (jeu video)_  clash royale (smarphone)</t>
+  </si>
+  <si>
+    <t>League of Legends_ Vainglory_ Trackmania</t>
+  </si>
+  <si>
+    <t>Call of duty sur ps4_ clash royal sur smartphone_ pokemon go sur smartphone</t>
+  </si>
+  <si>
+    <t>échecs/jeu de plateau_ tarot/jeu société_ scrabble/jeu de plateai</t>
+  </si>
+  <si>
+    <t>Mario Kart (DS)_ Just Dance (Wii)_ Wii sport (Wii)</t>
+  </si>
+  <si>
+    <t>Call of Duty Black ops_Call of Duty Black ops 2_The Last of US</t>
+  </si>
+  <si>
+    <t>batellfield 1 jeux vidéo _grand theft auto 5 jeux vidéo _1000 bornes jeux de societé.</t>
+  </si>
+  <si>
+    <t>Xenogears (PS1)_ Super Mario Bros (NES)_ FIFA 17 (PC)</t>
+  </si>
+  <si>
+    <t>Minecraft (PC)_ Garry's mod (PC)_ Monopoly (Jeu plateau)</t>
+  </si>
+  <si>
+    <t>Monopoly_ Duel Quiz_ jeu des 7 familles</t>
+  </si>
+  <si>
+    <t>Plants vs Zombies (smartphone)_ Ticket to ride (smartphone)_ Timeline (jeu de cartes)</t>
+  </si>
+  <si>
+    <t>zombie tsunami_ subway surfer_ piano tiles 2</t>
+  </si>
+  <si>
+    <t>Dominion (jeu de société)_ coinche (jeu de société)_ Five Tribes (jeu de société)</t>
+  </si>
+  <si>
+    <t>SuperBuzzer (sur iOS)_ 2048 (sur iOS)_ FifaStreet (jeu video)</t>
+  </si>
+  <si>
+    <t>Belote (jeu de plateau)_ dames chinoises (jeu de plateau)_ rami (jeu de société)</t>
+  </si>
+  <si>
+    <t>Fifa 17 sur PlayStation 4 _ Rocket league sur PlayStation 4 et GTA 5 sur PlayStation 4</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,115 +1228,115 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
@@ -1344,10 +1344,10 @@
         <v>42668.5998793287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>16</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="12">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>42668.600040937497</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>18</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="Q3" s="12">
         <v>5</v>
@@ -1534,10 +1534,10 @@
         <v>42668.600334166666</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>44</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -1614,10 +1614,10 @@
         <v>42668.601840335643</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>15</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="1">
         <v>1</v>
@@ -1694,10 +1694,10 @@
         <v>42668.602289467592</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>18</v>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="12">
         <v>4</v>
@@ -1804,10 +1804,10 @@
         <v>42668.604672650465</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>17</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -1914,10 +1914,10 @@
         <v>42668.619410011575</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>32</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="AA8" s="1">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>42668.621955428243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>16</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="1">
         <v>4</v>
@@ -2104,10 +2104,10 @@
         <v>42668.624610601852</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>16</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="AA10" s="1">
         <v>1</v>
@@ -2184,10 +2184,10 @@
         <v>42668.722056203704</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>30</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="AA11" s="1">
         <v>1</v>
@@ -2264,10 +2264,10 @@
         <v>42668.72753207176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="AA12" s="1">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>42668.727935682866</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>21</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="AA13" s="1">
         <v>1</v>
@@ -2424,10 +2424,10 @@
         <v>42668.731528171294</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>24</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="AA14" s="1">
         <v>1</v>
@@ -2504,10 +2504,10 @@
         <v>42668.737358842598</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA15" s="1">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         <v>42668.743075995371</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>28</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="AA16" s="1">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>42668.744119409719</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>27</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="1">
         <v>4</v>
@@ -2774,10 +2774,10 @@
         <v>42669.587960717588</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="4">
         <v>4</v>
@@ -2884,10 +2884,10 @@
         <v>42669.588498252313</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="4">
         <v>4</v>
@@ -2994,10 +2994,10 @@
         <v>42669.5892040162</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4">
         <v>15</v>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="4">
         <v>4</v>
@@ -3104,10 +3104,10 @@
         <v>42669.663748553241</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4">
         <v>15</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="4">
         <v>4</v>
@@ -3214,10 +3214,10 @@
         <v>42669.670901747682</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="4">
         <v>17</v>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="4">
         <v>5</v>
@@ -3324,10 +3324,10 @@
         <v>42669.671276643523</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4">
         <v>28</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="4">
         <v>5</v>
@@ -3434,10 +3434,10 @@
         <v>42669.671483020837</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4">
         <v>17</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="4">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>42669.671515474532</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4">
         <v>17</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="4">
         <v>3</v>
@@ -3654,10 +3654,10 @@
         <v>42669.671890995371</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4">
         <v>15</v>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="4">
         <v>3</v>
@@ -3764,10 +3764,10 @@
         <v>42669.672054270835</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4">
         <v>16</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="4">
         <v>5</v>
@@ -3874,10 +3874,10 @@
         <v>42670.591511828708</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D28" s="7">
         <v>42</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -3964,10 +3964,10 @@
         <v>42670.66480859954</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D29" s="7">
         <v>19</v>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="7">
         <v>4</v>
@@ -4074,10 +4074,10 @@
         <v>42670.664955231478</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D30" s="7">
         <v>16</v>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="7">
         <v>4</v>
@@ -4184,10 +4184,10 @@
         <v>42670.667576493055</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D31" s="7">
         <v>50</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -4274,10 +4274,10 @@
         <v>42670.676998344905</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7">
         <v>38</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -4364,10 +4364,10 @@
         <v>42670.679793402778</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D33" s="7">
         <v>43</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -4454,10 +4454,10 @@
         <v>42670.679965914351</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D34" s="7">
         <v>31</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -4544,10 +4544,10 @@
         <v>42670.681416689811</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D35" s="7">
         <v>13</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7">
         <v>5</v>
@@ -4654,10 +4654,10 @@
         <v>42670.697702395832</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D36" s="7">
         <v>13</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -4744,10 +4744,10 @@
         <v>42670.722759328703</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D37" s="7">
         <v>14</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -4834,10 +4834,10 @@
         <v>42670.72348836805</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="D38" s="7">
         <v>13</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -4924,10 +4924,10 @@
         <v>42670.724225648148</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D39" s="7">
         <v>43</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="7">
         <v>5</v>
@@ -5034,10 +5034,10 @@
         <v>42670.725266307869</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D40" s="7">
         <v>15</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="7">
         <v>4</v>
@@ -5144,10 +5144,10 @@
         <v>42670.727453587962</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D41" s="7">
         <v>15</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="7">
         <v>3</v>
@@ -5254,10 +5254,10 @@
         <v>42671.433049861109</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D42" s="7">
         <v>16</v>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="7">
         <v>5</v>
@@ -5364,10 +5364,10 @@
         <v>42671.433292291666</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D43" s="7">
         <v>15</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5454,10 +5454,10 @@
         <v>42671.43637674769</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D44" s="7">
         <v>14</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="7">
         <v>3</v>
@@ -5564,10 +5564,10 @@
         <v>42671.436936307873</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D45" s="7">
         <v>15</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="7">
         <v>3</v>
@@ -5674,10 +5674,10 @@
         <v>42671.438207824074</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D46" s="7">
         <v>14</v>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="7">
         <v>4</v>
@@ -5784,10 +5784,10 @@
         <v>42671.439097175928</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="D47" s="7">
         <v>14</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
@@ -5874,10 +5874,10 @@
         <v>42671.440333472223</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="D48" s="7">
         <v>16</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="Q48" s="7">
         <v>4</v>
@@ -5984,10 +5984,10 @@
         <v>42671.441687175931</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D49" s="7">
         <v>13</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
@@ -6074,10 +6074,10 @@
         <v>42671.469750844903</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D50" s="7">
         <v>14</v>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="Q50" s="7">
         <v>5</v>
@@ -6184,10 +6184,10 @@
         <v>42671.471061516204</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D51" s="7">
         <v>14</v>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Q51" s="7">
         <v>5</v>
@@ -6294,10 +6294,10 @@
         <v>42671.473378206021</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="D52" s="7">
         <v>15</v>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="Q52" s="7">
         <v>4</v>
@@ -6404,10 +6404,10 @@
         <v>42671.474049212964</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D53" s="7">
         <v>14</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="Q53" s="7">
         <v>5</v>
@@ -6514,10 +6514,10 @@
         <v>42671.477337025462</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D54" s="7">
         <v>13</v>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="Q54" s="7">
         <v>4</v>
@@ -6624,10 +6624,10 @@
         <v>42671.602961793978</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D55" s="7">
         <v>48</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -6714,10 +6714,10 @@
         <v>42671.603829930551</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D56" s="7">
         <v>15</v>
@@ -6756,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="Q56" s="7">
         <v>4</v>
@@ -6824,10 +6824,10 @@
         <v>42671.627187418984</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D57" s="7">
         <v>14</v>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="Q57" s="7">
         <v>4</v>
@@ -6934,10 +6934,10 @@
         <v>42671.639092662037</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D58" s="7">
         <v>14</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -7024,10 +7024,10 @@
         <v>42671.642689236112</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D59" s="7">
         <v>14</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="Q59" s="12">
         <v>1</v>
@@ -7134,10 +7134,10 @@
         <v>42671.643826087966</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D60" s="7">
         <v>14</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
@@ -7224,10 +7224,10 @@
         <v>42671.64995071759</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D61" s="7">
         <v>13</v>
@@ -7266,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="Q61" s="7">
         <v>5</v>
@@ -7334,10 +7334,10 @@
         <v>42671.664867210653</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="D62" s="7">
         <v>14</v>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="Q62" s="7">
         <v>5</v>
@@ -7444,10 +7444,10 @@
         <v>42671.676489050922</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D63" s="7">
         <v>36</v>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="Q63" s="7">
         <v>4</v>
@@ -7554,10 +7554,10 @@
         <v>42671.690788414351</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="D64" s="7">
         <v>50</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
@@ -7644,10 +7644,10 @@
         <v>42671.691933784721</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D65" s="7">
         <v>13</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="Q65" s="7">
         <v>4</v>
@@ -7754,10 +7754,10 @@
         <v>42671.692728622686</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D66" s="7">
         <v>13</v>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Q66" s="7">
         <v>4</v>
@@ -7864,10 +7864,10 @@
         <v>42671.697024039357</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D67" s="7">
         <v>16</v>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="Q67" s="7">
         <v>5</v>
@@ -7974,10 +7974,10 @@
         <v>42671.717654074077</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D68" s="7">
         <v>14</v>
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="Q68" s="7">
         <v>4</v>
@@ -8084,10 +8084,10 @@
         <v>42672.590764953704</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D69" s="10">
         <v>49</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -8174,10 +8174,10 @@
         <v>42672.593492071755</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D70" s="10">
         <v>13</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -8264,10 +8264,10 @@
         <v>42672.593789513892</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="D71" s="10">
         <v>35</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="14" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -8354,10 +8354,10 @@
         <v>42672.596574074079</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D72" s="10">
         <v>13</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
@@ -8444,10 +8444,10 @@
         <v>42672.654343692135</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D73" s="10">
         <v>27</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -8534,10 +8534,10 @@
         <v>42672.655313379626</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D74" s="10">
         <v>44</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
@@ -8624,10 +8624,10 @@
         <v>42672.655692638888</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D75" s="10">
         <v>42</v>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="Q75" s="10">
         <v>3</v>
@@ -8734,10 +8734,10 @@
         <v>42672.656489560184</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D76" s="10">
         <v>22</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
@@ -8824,10 +8824,10 @@
         <v>42672.662505173612</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D77" s="10">
         <v>15</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
@@ -8914,10 +8914,10 @@
         <v>42672.662639108792</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D78" s="10">
         <v>44</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
@@ -9004,10 +9004,10 @@
         <v>42672.663116481483</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="D79" s="10">
         <v>44</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
@@ -9094,10 +9094,10 @@
         <v>42672.664982314818</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D80" s="10">
         <v>13</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
@@ -9184,10 +9184,10 @@
         <v>42672.724250949075</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D81" s="10">
         <v>75</v>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>

--- a/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
+++ b/xp/log_questionnaire_XP_WEEK2_REWRITED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="27780" windowHeight="12885"/>
+    <workbookView xWindow="10845" yWindow="0" windowWidth="27780" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="log_questionnaire_XP_WEEK2_REWR" sheetId="1" r:id="rId1"/>
@@ -741,9 +741,6 @@
     <t>IDjoueur</t>
   </si>
   <si>
-    <t>Citez trois de vos jeux favoris en précisant leur support (jeu vidéo_ jeu de plateau/de société_ etc.) :</t>
-  </si>
-  <si>
     <t>WoW PC _ CsGo PC _ RiskOfRain PC</t>
   </si>
   <si>
@@ -858,6 +855,9 @@
   </si>
   <si>
     <t>Fifa 17 sur PlayStation 4 _ Rocket league sur PlayStation 4 et GTA 5 sur PlayStation 4</t>
+  </si>
+  <si>
+    <t>jeuxFav</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
         <v>216</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>217</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="12">
         <v>5</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="12">
         <v>4</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="1">
         <v>4</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA8" s="1">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="1">
         <v>4</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA10" s="1">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA11" s="1">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" s="1">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42668.727935682866</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA13" s="1">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA14" s="1">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA16" s="1">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="1">
         <v>4</v>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="4">
         <v>4</v>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="4">
         <v>4</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="4">
         <v>4</v>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="4">
         <v>5</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="4">
         <v>3</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="4">
         <v>5</v>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="7">
         <v>4</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q39" s="7">
         <v>5</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7">
         <v>4</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q45" s="7">
         <v>3</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -7266,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q61" s="7">
         <v>5</v>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q62" s="7">
         <v>5</v>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q63" s="7">
         <v>4</v>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q67" s="7">
         <v>5</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q75" s="10">
         <v>3</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
